--- a/consorcios/datos varios.xlsx
+++ b/consorcios/datos varios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ingunlamedu.sharepoint.com/sites/BasesdeDatosAplicada-Docentes/Documentos compartidos/Docentes/2025-2C/TP-2er cuatrimestre/Archivos para el TP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\TP_Base_de_datos_aplicada\Grupo06\consorcios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB0F96A8-D747-43AA-A8CF-2FC76ABA1DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD80840-0EA4-4E46-AB1E-0B11F7CE80BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6A8D2913-A757-4FF5-B2C4-210F3EBD3710}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A8D2913-A757-4FF5-B2C4-210F3EBD3710}"/>
   </bookViews>
   <sheets>
     <sheet name="Consorcios" sheetId="4" r:id="rId1"/>
@@ -630,13 +630,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B4358A-D37C-4CA5-A391-9A6D2EF63B08}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -653,7 +658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
@@ -670,7 +675,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -687,7 +692,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -704,7 +709,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>41</v>
       </c>
@@ -721,7 +726,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
@@ -747,25 +752,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81D6F6C-0DDE-4690-8284-31B7EB6A87C7}">
   <dimension ref="B2:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.21875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -777,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -789,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -801,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -815,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
@@ -829,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
@@ -843,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -855,7 +860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -867,7 +872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
@@ -879,7 +884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
@@ -893,7 +898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
@@ -907,7 +912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
@@ -921,7 +926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
@@ -932,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
@@ -946,7 +951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
@@ -960,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
@@ -974,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
@@ -986,7 +991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
@@ -998,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
@@ -1010,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
@@ -1024,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
@@ -1038,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -1064,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
@@ -1076,7 +1081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +1093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
@@ -1102,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
@@ -1116,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>17</v>
       </c>
@@ -1136,6 +1141,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c1a4ef89-8e8d-479e-83ea-6deabd5e5c29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E0244CD539E758458F9751B276EDBDB5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2b5c95b75d2fe931e1676529dccb9274">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1a4ef89-8e8d-479e-83ea-6deabd5e5c29" xmlns:ns3="5ab81898-6d95-4a49-9528-d5d2a870eede" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aace79077018d6c7c06338ec0c1d894e" ns2:_="" ns3:_="">
     <xsd:import namespace="c1a4ef89-8e8d-479e-83ea-6deabd5e5c29"/>
@@ -1352,33 +1376,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c1a4ef89-8e8d-479e-83ea-6deabd5e5c29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E723FCA-933D-440C-9A9A-15F168228769}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9172FB48-66B5-4AF1-B0CB-063B1F8E80BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1a4ef89-8e8d-479e-83ea-6deabd5e5c29"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C3C08B1-B05C-4581-873C-6863BD600FAF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C3C08B1-B05C-4581-873C-6863BD600FAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9172FB48-66B5-4AF1-B0CB-063B1F8E80BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E723FCA-933D-440C-9A9A-15F168228769}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c1a4ef89-8e8d-479e-83ea-6deabd5e5c29"/>
+    <ds:schemaRef ds:uri="5ab81898-6d95-4a49-9528-d5d2a870eede"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/consorcios/datos varios.xlsx
+++ b/consorcios/datos varios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\TP_Base_de_datos_aplicada\Grupo06\consorcios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ingunlamedu.sharepoint.com/sites/BasesdeDatosAplicada-Docentes/Documentos compartidos/Docentes/2025-2C/TP-2er cuatrimestre/Archivos para el TP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD80840-0EA4-4E46-AB1E-0B11F7CE80BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB0F96A8-D747-43AA-A8CF-2FC76ABA1DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A8D2913-A757-4FF5-B2C4-210F3EBD3710}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6A8D2913-A757-4FF5-B2C4-210F3EBD3710}"/>
   </bookViews>
   <sheets>
     <sheet name="Consorcios" sheetId="4" r:id="rId1"/>
@@ -630,18 +630,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B4358A-D37C-4CA5-A391-9A6D2EF63B08}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -658,7 +653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
@@ -675,7 +670,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -692,7 +687,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -709,7 +704,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>41</v>
       </c>
@@ -726,7 +721,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
@@ -752,25 +747,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81D6F6C-0DDE-4690-8284-31B7EB6A87C7}">
   <dimension ref="B2:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -782,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -794,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -806,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -820,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
@@ -834,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
@@ -848,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -860,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -872,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
@@ -884,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
@@ -898,7 +893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
@@ -912,7 +907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
@@ -926,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
@@ -937,7 +932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
@@ -951,7 +946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
@@ -965,7 +960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
@@ -979,7 +974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
@@ -991,7 +986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
@@ -1015,7 +1010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
@@ -1029,7 +1024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
@@ -1043,7 +1038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>17</v>
       </c>
@@ -1057,7 +1052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
@@ -1081,7 +1076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
@@ -1093,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
@@ -1121,7 +1116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>17</v>
       </c>
@@ -1141,25 +1136,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c1a4ef89-8e8d-479e-83ea-6deabd5e5c29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E0244CD539E758458F9751B276EDBDB5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2b5c95b75d2fe931e1676529dccb9274">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1a4ef89-8e8d-479e-83ea-6deabd5e5c29" xmlns:ns3="5ab81898-6d95-4a49-9528-d5d2a870eede" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aace79077018d6c7c06338ec0c1d894e" ns2:_="" ns3:_="">
     <xsd:import namespace="c1a4ef89-8e8d-479e-83ea-6deabd5e5c29"/>
@@ -1376,39 +1352,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c1a4ef89-8e8d-479e-83ea-6deabd5e5c29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9172FB48-66B5-4AF1-B0CB-063B1F8E80BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1a4ef89-8e8d-479e-83ea-6deabd5e5c29"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E723FCA-933D-440C-9A9A-15F168228769}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C3C08B1-B05C-4581-873C-6863BD600FAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C3C08B1-B05C-4581-873C-6863BD600FAF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E723FCA-933D-440C-9A9A-15F168228769}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c1a4ef89-8e8d-479e-83ea-6deabd5e5c29"/>
-    <ds:schemaRef ds:uri="5ab81898-6d95-4a49-9528-d5d2a870eede"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9172FB48-66B5-4AF1-B0CB-063B1F8E80BF}"/>
 </file>